--- a/Template.xlsx
+++ b/Template.xlsx
@@ -9,7 +9,6 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7785" windowHeight="7650" tabRatio="795" firstSheet="5" activeTab="8"/>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
@@ -80,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="1297">
   <si>
     <t>Nome da Tabela</t>
   </si>
@@ -3927,6 +3926,81 @@
   </si>
   <si>
     <t>Translation</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>14A</t>
+  </si>
+  <si>
+    <t>14B</t>
+  </si>
+  <si>
+    <t>14C</t>
+  </si>
+  <si>
+    <t>14D</t>
+  </si>
+  <si>
+    <t>14E</t>
+  </si>
+  <si>
+    <t>14F</t>
+  </si>
+  <si>
+    <t>1410</t>
+  </si>
+  <si>
+    <t>1411</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>1413</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>1416</t>
+  </si>
+  <si>
+    <t>1417</t>
+  </si>
+  <si>
+    <t>1418</t>
+  </si>
+  <si>
+    <t>1419</t>
   </si>
 </sst>
 </file>
@@ -4054,9 +4128,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4074,6 +4145,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4907,10 +4981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -4932,7 +5003,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="34">
         <v>1</v>
       </c>
     </row>
@@ -4940,7 +5011,7 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="34">
         <v>3</v>
       </c>
     </row>
@@ -4948,7 +5019,7 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="34">
         <v>5</v>
       </c>
     </row>
@@ -4956,7 +5027,7 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="34">
         <v>6</v>
       </c>
     </row>
@@ -4964,7 +5035,7 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="34">
         <v>7</v>
       </c>
     </row>
@@ -4972,7 +5043,7 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="34">
         <v>8</v>
       </c>
     </row>
@@ -4980,7 +5051,7 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="34">
         <v>9</v>
       </c>
     </row>
@@ -4988,7 +5059,7 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4996,7 +5067,7 @@
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5004,7 +5075,7 @@
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5012,7 +5083,7 @@
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5020,7 +5091,7 @@
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5028,7 +5099,7 @@
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5036,7 +5107,7 @@
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>10</v>
       </c>
     </row>
@@ -5044,7 +5115,7 @@
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>11</v>
       </c>
     </row>
@@ -5052,7 +5123,7 @@
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="34">
         <v>12</v>
       </c>
     </row>
@@ -5060,7 +5131,7 @@
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="34">
         <v>13</v>
       </c>
     </row>
@@ -5068,7 +5139,7 @@
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="34">
         <v>14</v>
       </c>
     </row>
@@ -5076,7 +5147,7 @@
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="34">
         <v>15</v>
       </c>
     </row>
@@ -5084,7 +5155,7 @@
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="34">
         <v>16</v>
       </c>
     </row>
@@ -5092,7 +5163,7 @@
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="34">
         <v>17</v>
       </c>
     </row>
@@ -5100,7 +5171,7 @@
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="34">
         <v>18</v>
       </c>
     </row>
@@ -5108,7 +5179,7 @@
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="34">
         <v>19</v>
       </c>
     </row>
@@ -5116,7 +5187,7 @@
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5124,7 +5195,7 @@
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5139,10 +5210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5279,9 +5347,6 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -5369,10 +5434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-    <sheetView topLeftCell="A10" workbookViewId="1">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -5654,10 +5716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5689,10 +5748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6116,10 +6172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6392,10 +6445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A2:A45"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6772,11 +6822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-    <sheetView topLeftCell="B10" workbookViewId="1">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10038,11 +10085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13301,12 +13345,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13329,11 +13372,286 @@
       <c r="A2" s="3">
         <v>140</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>130</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="12">
         <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B3" s="11">
+        <v>131</v>
+      </c>
+      <c r="C3" s="11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B4" s="11">
+        <v>132</v>
+      </c>
+      <c r="C4" s="11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B5" s="11">
+        <v>133</v>
+      </c>
+      <c r="C5" s="11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B6" s="3">
+        <v>134</v>
+      </c>
+      <c r="C6" s="11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B7" s="11">
+        <v>135</v>
+      </c>
+      <c r="C7" s="11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B8" s="11">
+        <v>136</v>
+      </c>
+      <c r="C8" s="11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B9" s="11">
+        <v>137</v>
+      </c>
+      <c r="C9" s="11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B10" s="3">
+        <v>138</v>
+      </c>
+      <c r="C10" s="11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B11" s="11">
+        <v>139</v>
+      </c>
+      <c r="C11" s="11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1310</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1311</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1312</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1313</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1314</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1315</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1316</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1317</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1318</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1319</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1219</v>
       </c>
     </row>
   </sheetData>
@@ -13346,9 +13664,6 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -13485,10 +13800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13670,10 +13982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13954,10 +14263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14084,10 +14390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15505,10 +15808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15691,10 +15991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16272,10 +16569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16556,10 +16850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17072,9 +17363,6 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -17086,11 +17374,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="35" t="s">
         <v>1014</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -17159,10 +17447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C390"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="E300" sqref="E300"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20953,10 +21238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21109,9 +21391,6 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -21147,10 +21426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-    <sheetView topLeftCell="A5" workbookViewId="1">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B24"/>
     </sheetView>
   </sheetViews>
@@ -21360,10 +21636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-    <sheetView topLeftCell="A6" workbookViewId="1">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -21678,7 +21951,7 @@
       <c r="B14">
         <v>16</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <v>79</v>
       </c>
       <c r="D14">
@@ -22692,10 +22965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B126" sqref="A2:B126"/>
-    </sheetView>
-    <sheetView topLeftCell="A106" workbookViewId="1">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
@@ -23721,4156 +23991,4153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194"/>
-    </sheetView>
-    <sheetView topLeftCell="A64" workbookViewId="1">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" style="31"/>
-    <col min="3" max="16384" width="14.42578125" style="28"/>
+    <col min="1" max="2" width="14.42578125" style="30"/>
+    <col min="3" max="16384" width="14.42578125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>683</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>1010</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>10</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>489</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>1020</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>10</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>490</v>
       </c>
-      <c r="E3" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="30" t="s">
+      <c r="E3" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>10</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>491</v>
       </c>
-      <c r="E4" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="30" t="s">
+      <c r="E4" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>1022</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>10</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>492</v>
       </c>
-      <c r="E5" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="30" t="s">
+      <c r="E5" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>1041</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>10</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="E6" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="30" t="s">
+      <c r="E6" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>1042</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>10</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="E7" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="30" t="s">
+      <c r="E7" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>1023</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>10</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>498</v>
       </c>
-      <c r="E8" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="30" t="s">
+      <c r="E8" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>1024</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>11</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>499</v>
       </c>
-      <c r="E9" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="30" t="s">
+      <c r="E9" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>1043</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>10</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>500</v>
       </c>
-      <c r="E10" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="30" t="s">
+      <c r="E10" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="29" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>1025</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>10</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>501</v>
       </c>
-      <c r="E11" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="30" t="s">
+      <c r="E11" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>1026</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>10</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>502</v>
       </c>
-      <c r="E12" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="30" t="s">
+      <c r="E12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>1027</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>10</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="E13" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="30" t="s">
+      <c r="E13" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>1028</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>10</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>505</v>
       </c>
-      <c r="E14" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="30" t="s">
+      <c r="E14" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>1029</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>10</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>507</v>
       </c>
-      <c r="E15" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="30" t="s">
+      <c r="E15" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>1030</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>10</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>508</v>
       </c>
-      <c r="E16" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="30" t="s">
+      <c r="E16" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="29" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>1152</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>10</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>509</v>
       </c>
-      <c r="E17" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="30" t="s">
+      <c r="E17" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="29" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>1031</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>510</v>
       </c>
-      <c r="E18" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="30" t="s">
+      <c r="E18" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="29" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>1044</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="E19" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="30" t="s">
+      <c r="E19" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="29" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>1032</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>10</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="E20" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="30" t="s">
+      <c r="E20" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>1033</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>10</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>514</v>
       </c>
-      <c r="E21" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="30" t="s">
+      <c r="E21" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>1034</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>10</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>515</v>
       </c>
-      <c r="E22" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="30" t="s">
+      <c r="E22" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+    <row r="23" spans="1:7" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>1035</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>10</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>517</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="30" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>1045</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>10</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>518</v>
       </c>
-      <c r="E24" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="30" t="s">
+      <c r="E24" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>1036</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>10</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>519</v>
       </c>
-      <c r="E25" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="30" t="s">
+      <c r="E25" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>1037</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>10</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="E26" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="30" t="s">
+      <c r="E26" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>1038</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>11</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="28" t="s">
         <v>521</v>
       </c>
-      <c r="E27" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="30" t="s">
+      <c r="E27" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>1039</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>10</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="E28" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="30" t="s">
+      <c r="E28" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="30" t="s">
         <v>1153</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>10</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="28" t="s">
         <v>523</v>
       </c>
-      <c r="E29" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="30" t="s">
+      <c r="E29" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>1040</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>12</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="28" t="s">
         <v>524</v>
       </c>
-      <c r="E30" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="30" t="s">
+      <c r="E30" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="29" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>1154</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>10</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="E31" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="30" t="s">
+      <c r="E31" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>1155</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>10</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="E32" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="30" t="s">
+      <c r="E32" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="29" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>1156</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="25">
         <v>10</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="E33" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="30" t="s">
+      <c r="E33" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="29" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>1046</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="25">
         <v>10</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="E34" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="30" t="s">
+      <c r="E34" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="29" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>1047</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="25">
         <v>10</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="28" t="s">
         <v>533</v>
       </c>
-      <c r="E35" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="30" t="s">
+      <c r="E35" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>1048</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>10</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="E36" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="30" t="s">
+      <c r="E36" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="30" t="s">
         <v>1049</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <v>10</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="E37" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="30" t="s">
+      <c r="E37" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+    <row r="38" spans="1:7" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
         <v>1050</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <v>10</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="28" t="s">
         <v>541</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="30" t="s">
+      <c r="D38" s="27"/>
+      <c r="E38" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="29" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <v>10</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="28" t="s">
         <v>542</v>
       </c>
-      <c r="E39" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" s="30" t="s">
+      <c r="E39" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="29" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="30" t="s">
         <v>1052</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <v>10</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="E40" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" s="30" t="s">
+      <c r="E40" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="30" t="s">
         <v>1053</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <v>10</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="28" t="s">
         <v>544</v>
       </c>
-      <c r="E41" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" s="30" t="s">
+      <c r="E41" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="29" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="25" t="s">
         <v>1054</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="25">
         <v>10</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="E42" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" s="30" t="s">
+      <c r="E42" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="30" t="s">
         <v>1055</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="25">
         <v>10</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="28" t="s">
         <v>546</v>
       </c>
-      <c r="E43" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" s="30" t="s">
+      <c r="E43" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="29" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="30" t="s">
         <v>1157</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <v>10</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="32" t="s">
         <v>547</v>
       </c>
-      <c r="E44" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" s="30" t="s">
+      <c r="E44" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="29" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="30" t="s">
         <v>1159</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="25">
         <v>10</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="32" t="s">
         <v>554</v>
       </c>
-      <c r="E45" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" s="30" t="s">
+      <c r="E45" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="29" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>1160</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="25">
         <v>10</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="32" t="s">
         <v>555</v>
       </c>
-      <c r="E46" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" s="30" t="s">
+      <c r="E46" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="29" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="30" t="s">
         <v>1161</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="25">
         <v>10</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="E47" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" s="30" t="s">
+      <c r="E47" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="29" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="30" t="s">
         <v>1162</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="25">
         <v>10</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="32" t="s">
         <v>561</v>
       </c>
-      <c r="E48" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="30" t="s">
+      <c r="E48" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="29" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
+    <row r="49" spans="1:7" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
         <v>1163</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="25">
         <v>10</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="32" t="s">
         <v>564</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="30" t="s">
+      <c r="D49" s="27"/>
+      <c r="E49" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="29" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="30" t="s">
         <v>1056</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="25">
         <v>10</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="32" t="s">
         <v>567</v>
       </c>
-      <c r="E50" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" s="30" t="s">
+      <c r="E50" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="29" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="30" t="s">
         <v>1057</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="25">
         <v>10</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="32" t="s">
         <v>569</v>
       </c>
-      <c r="E51" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" s="30" t="s">
+      <c r="E51" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="29" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="25" t="s">
         <v>1058</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="25">
         <v>10</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="32" t="s">
         <v>570</v>
       </c>
-      <c r="E52" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52" s="30" t="s">
+      <c r="E52" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="29" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="30" t="s">
         <v>1059</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="25">
         <v>10</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="32" t="s">
         <v>571</v>
       </c>
-      <c r="E53" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G53" s="30" t="s">
+      <c r="E53" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="29" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="30" t="s">
         <v>1060</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="25">
         <v>10</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="32" t="s">
         <v>574</v>
       </c>
-      <c r="E54" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" s="30" t="s">
+      <c r="E54" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="29" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="30" t="s">
         <v>1061</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="25">
         <v>10</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="32" t="s">
         <v>575</v>
       </c>
-      <c r="E55" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" s="30" t="s">
+      <c r="E55" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="29" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="25" t="s">
         <v>1062</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="25">
         <v>10</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="32" t="s">
         <v>576</v>
       </c>
-      <c r="E56" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" s="30" t="s">
+      <c r="E56" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="30" t="s">
         <v>1063</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="25">
         <v>10</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="32" t="s">
         <v>578</v>
       </c>
-      <c r="E57" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G57" s="30" t="s">
+      <c r="E57" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" s="29" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="30" t="s">
         <v>1064</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="25">
         <v>10</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="32" t="s">
         <v>579</v>
       </c>
-      <c r="E58" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58" s="30" t="s">
+      <c r="E58" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
+    <row r="59" spans="1:7" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
         <v>1065</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="25">
         <v>10</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" s="30" t="s">
+      <c r="D59" s="27"/>
+      <c r="E59" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="29" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="30" t="s">
         <v>1164</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="25">
         <v>13</v>
       </c>
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="E60" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" s="30" t="s">
+      <c r="E60" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="29" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="30" t="s">
         <v>1165</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="25">
         <v>10</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="E61" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" s="30" t="s">
+      <c r="E61" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="29" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="30" t="s">
         <v>1166</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="25">
         <v>10</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="32" t="s">
         <v>586</v>
       </c>
-      <c r="E62" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" s="30" t="s">
+      <c r="E62" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="29" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="30" t="s">
         <v>1167</v>
       </c>
-      <c r="B63" s="26">
+      <c r="B63" s="25">
         <v>10</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="32" t="s">
         <v>587</v>
       </c>
-      <c r="E63" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63" s="30" t="s">
+      <c r="E63" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" s="29" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="30" t="s">
         <v>1168</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="25">
         <v>10</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="32" t="s">
         <v>588</v>
       </c>
-      <c r="E64" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" s="30" t="s">
+      <c r="E64" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" s="29" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="30" t="s">
         <v>1169</v>
       </c>
-      <c r="B65" s="26">
+      <c r="B65" s="25">
         <v>10</v>
       </c>
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="32" t="s">
         <v>589</v>
       </c>
-      <c r="E65" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" s="30" t="s">
+      <c r="E65" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" s="29" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="25" t="s">
         <v>1066</v>
       </c>
-      <c r="B66" s="26">
+      <c r="B66" s="25">
         <v>10</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="32" t="s">
         <v>592</v>
       </c>
-      <c r="E66" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" s="30" t="s">
+      <c r="E66" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="29" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="30" t="s">
         <v>1067</v>
       </c>
-      <c r="B67" s="26">
+      <c r="B67" s="25">
         <v>10</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="C67" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="E67" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67" s="30" t="s">
+      <c r="E67" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" s="29" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="30" t="s">
         <v>1068</v>
       </c>
-      <c r="B68" s="26">
+      <c r="B68" s="25">
         <v>10</v>
       </c>
-      <c r="C68" s="33" t="s">
+      <c r="C68" s="32" t="s">
         <v>594</v>
       </c>
-      <c r="E68" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G68" s="30" t="s">
+      <c r="E68" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" s="29" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="30" t="s">
         <v>1069</v>
       </c>
-      <c r="B69" s="26">
+      <c r="B69" s="25">
         <v>10</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="32" t="s">
         <v>595</v>
       </c>
-      <c r="E69" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F69" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G69" s="30" t="s">
+      <c r="E69" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" s="29" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="25" t="s">
         <v>1070</v>
       </c>
-      <c r="B70" s="26">
+      <c r="B70" s="25">
         <v>10</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="E70" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70" s="30" t="s">
+      <c r="E70" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" s="29" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="30" t="s">
         <v>1071</v>
       </c>
-      <c r="B71" s="26">
+      <c r="B71" s="25">
         <v>10</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C71" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="E71" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F71" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G71" s="30" t="s">
+      <c r="E71" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" s="29" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="30" t="s">
         <v>1072</v>
       </c>
-      <c r="B72" s="26">
+      <c r="B72" s="25">
         <v>10</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="32" t="s">
         <v>598</v>
       </c>
-      <c r="E72" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F72" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G72" s="30" t="s">
+      <c r="E72" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" s="29" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="30" t="s">
         <v>1073</v>
       </c>
-      <c r="B73" s="26">
+      <c r="B73" s="25">
         <v>10</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="32" t="s">
         <v>600</v>
       </c>
-      <c r="E73" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F73" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G73" s="30" t="s">
+      <c r="E73" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" s="29" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="25" t="s">
         <v>1074</v>
       </c>
-      <c r="B74" s="26">
+      <c r="B74" s="25">
         <v>10</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="E74" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F74" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G74" s="30" t="s">
+      <c r="E74" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" s="29" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="30" t="s">
         <v>1075</v>
       </c>
-      <c r="B75" s="26">
+      <c r="B75" s="25">
         <v>10</v>
       </c>
-      <c r="C75" s="33" t="s">
+      <c r="C75" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="E75" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G75" s="30" t="s">
+      <c r="E75" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" s="29" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="30" t="s">
         <v>1170</v>
       </c>
-      <c r="B76" s="26">
+      <c r="B76" s="25">
         <v>10</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="E76" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G76" s="30" t="s">
+      <c r="E76" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="30" t="s">
         <v>1171</v>
       </c>
-      <c r="B77" s="26">
+      <c r="B77" s="25">
         <v>10</v>
       </c>
-      <c r="C77" s="33" t="s">
+      <c r="C77" s="32" t="s">
         <v>605</v>
       </c>
-      <c r="E77" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F77" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G77" s="30" t="s">
+      <c r="E77" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" s="29" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="30" t="s">
         <v>1172</v>
       </c>
-      <c r="B78" s="26">
+      <c r="B78" s="25">
         <v>10</v>
       </c>
-      <c r="C78" s="33" t="s">
+      <c r="C78" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="E78" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G78" s="30" t="s">
+      <c r="E78" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" s="29" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="30" t="s">
         <v>1173</v>
       </c>
-      <c r="B79" s="26">
+      <c r="B79" s="25">
         <v>10</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="E79" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G79" s="30" t="s">
+      <c r="E79" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" s="29" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="30" t="s">
         <v>1174</v>
       </c>
-      <c r="B80" s="26">
+      <c r="B80" s="25">
         <v>10</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="32" t="s">
         <v>610</v>
       </c>
-      <c r="E80" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G80" s="30" t="s">
+      <c r="E80" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="30" t="s">
         <v>1175</v>
       </c>
-      <c r="B81" s="26">
+      <c r="B81" s="25">
         <v>10</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="32" t="s">
         <v>611</v>
       </c>
-      <c r="E81" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G81" s="30" t="s">
+      <c r="E81" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" s="29" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="30" t="s">
         <v>1076</v>
       </c>
-      <c r="B82" s="26">
+      <c r="B82" s="25">
         <v>10</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C82" s="32" t="s">
         <v>612</v>
       </c>
-      <c r="E82" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F82" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G82" s="30" t="s">
+      <c r="E82" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" s="29" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="30" t="s">
         <v>1077</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>489</v>
       </c>
       <c r="D83" s="2"/>
-      <c r="E83" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G83" s="30" t="s">
+      <c r="E83" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" s="29" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="25" t="s">
         <v>1078</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>490</v>
       </c>
       <c r="D84" s="2"/>
-      <c r="E84" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G84" s="30" t="s">
+      <c r="E84" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" s="29" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="30" t="s">
         <v>1079</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>491</v>
       </c>
       <c r="D85" s="2"/>
-      <c r="E85" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G85" s="30" t="s">
+      <c r="E85" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="30" t="s">
         <v>1080</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>492</v>
       </c>
       <c r="D86" s="2"/>
-      <c r="E86" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F86" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G86" s="30" t="s">
+      <c r="E86" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" s="29" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="30" t="s">
         <v>1081</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>493</v>
       </c>
       <c r="D87" s="2"/>
-      <c r="E87" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G87" s="30" t="s">
+      <c r="E87" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" s="29" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="25" t="s">
         <v>1082</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>494</v>
       </c>
       <c r="D88" s="2"/>
-      <c r="E88" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F88" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G88" s="30" t="s">
+      <c r="E88" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" s="29" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="30" t="s">
         <v>1083</v>
       </c>
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>495</v>
       </c>
       <c r="D89" s="2"/>
-      <c r="E89" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F89" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G89" s="30" t="s">
+      <c r="E89" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" s="29" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="30" t="s">
         <v>1084</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>496</v>
       </c>
       <c r="D90" s="2"/>
-      <c r="E90" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F90" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G90" s="30" t="s">
+      <c r="E90" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" s="29" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="30" t="s">
         <v>1085</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>497</v>
       </c>
       <c r="D91" s="2"/>
-      <c r="E91" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F91" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G91" s="30" t="s">
+      <c r="E91" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" s="29" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="30" t="s">
         <v>1176</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>498</v>
       </c>
       <c r="D92" s="2"/>
-      <c r="E92" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F92" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G92" s="30" t="s">
+      <c r="E92" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="30" t="s">
         <v>1177</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>499</v>
       </c>
       <c r="D93" s="2"/>
-      <c r="E93" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F93" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G93" s="30" t="s">
+      <c r="E93" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" s="29" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="30" t="s">
         <v>1178</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>500</v>
       </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F94" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G94" s="30" t="s">
+      <c r="E94" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" s="29" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="30" t="s">
         <v>1179</v>
       </c>
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>501</v>
       </c>
       <c r="D95" s="2"/>
-      <c r="E95" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F95" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G95" s="30" t="s">
+      <c r="E95" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" s="29" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="30" t="s">
         <v>1180</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>502</v>
       </c>
       <c r="D96" s="2"/>
-      <c r="E96" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F96" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G96" s="30" t="s">
+      <c r="E96" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" s="29" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="30" t="s">
         <v>1181</v>
       </c>
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>503</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F97" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G97" s="30" t="s">
+      <c r="E97" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" s="29" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="26" t="s">
+      <c r="A98" s="25" t="s">
         <v>1086</v>
       </c>
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>504</v>
       </c>
       <c r="D98" s="2"/>
-      <c r="E98" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F98" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G98" s="30" t="s">
+      <c r="E98" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" s="29" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="30" t="s">
         <v>1087</v>
       </c>
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>505</v>
       </c>
       <c r="D99" s="2"/>
-      <c r="E99" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F99" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G99" s="30" t="s">
+      <c r="E99" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" s="29" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="30" t="s">
         <v>1088</v>
       </c>
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>506</v>
       </c>
       <c r="D100" s="2"/>
-      <c r="E100" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F100" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G100" s="30" t="s">
+      <c r="E100" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" s="29" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="30" t="s">
         <v>1089</v>
       </c>
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>507</v>
       </c>
       <c r="D101" s="2"/>
-      <c r="E101" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F101" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G101" s="30" t="s">
+      <c r="E101" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" s="29" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="26" t="s">
+      <c r="A102" s="25" t="s">
         <v>1090</v>
       </c>
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>508</v>
       </c>
       <c r="D102" s="2"/>
-      <c r="E102" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F102" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G102" s="30" t="s">
+      <c r="E102" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102" s="29" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
+      <c r="A103" s="30" t="s">
         <v>1091</v>
       </c>
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>509</v>
       </c>
       <c r="D103" s="2"/>
-      <c r="E103" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F103" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G103" s="30" t="s">
+      <c r="E103" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" s="29" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="31" t="s">
+      <c r="A104" s="30" t="s">
         <v>1092</v>
       </c>
-      <c r="B104" s="31" t="s">
+      <c r="B104" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>510</v>
       </c>
       <c r="D104" s="2"/>
-      <c r="E104" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F104" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G104" s="30" t="s">
+      <c r="E104" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" s="29" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
+      <c r="A105" s="30" t="s">
         <v>1093</v>
       </c>
-      <c r="B105" s="31" t="s">
+      <c r="B105" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>511</v>
       </c>
       <c r="D105" s="2"/>
-      <c r="E105" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F105" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G105" s="30" t="s">
+      <c r="E105" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" s="29" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="25" t="s">
         <v>1094</v>
       </c>
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>512</v>
       </c>
       <c r="D106" s="2"/>
-      <c r="E106" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F106" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G106" s="30" t="s">
+      <c r="E106" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" s="29" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="31" t="s">
+      <c r="A107" s="30" t="s">
         <v>1095</v>
       </c>
-      <c r="B107" s="31" t="s">
+      <c r="B107" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>513</v>
       </c>
       <c r="D107" s="2"/>
-      <c r="E107" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F107" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G107" s="30" t="s">
+      <c r="E107" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" s="29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="31" t="s">
+      <c r="A108" s="30" t="s">
         <v>1182</v>
       </c>
-      <c r="B108" s="31" t="s">
+      <c r="B108" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>514</v>
       </c>
       <c r="D108" s="2"/>
-      <c r="E108" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F108" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G108" s="30" t="s">
+      <c r="E108" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" s="29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="30" t="s">
         <v>1183</v>
       </c>
-      <c r="B109" s="31" t="s">
+      <c r="B109" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>515</v>
       </c>
       <c r="D109" s="2"/>
-      <c r="E109" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F109" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G109" s="30" t="s">
+      <c r="E109" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" s="29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="31" t="s">
+      <c r="A110" s="30" t="s">
         <v>1184</v>
       </c>
-      <c r="B110" s="31" t="s">
+      <c r="B110" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>517</v>
       </c>
       <c r="D110" s="2"/>
-      <c r="E110" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F110" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G110" s="30" t="s">
+      <c r="E110" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" s="29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="31" t="s">
+      <c r="A111" s="30" t="s">
         <v>1185</v>
       </c>
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>518</v>
       </c>
       <c r="D111" s="2"/>
-      <c r="E111" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F111" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G111" s="30" t="s">
+      <c r="E111" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" s="29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="31" t="s">
+      <c r="A112" s="30" t="s">
         <v>1186</v>
       </c>
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>519</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F112" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G112" s="30" t="s">
+      <c r="E112" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" s="29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="31" t="s">
+      <c r="A113" s="30" t="s">
         <v>1187</v>
       </c>
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>520</v>
       </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F113" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G113" s="30" t="s">
+      <c r="E113" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="31" t="s">
+      <c r="A114" s="30" t="s">
         <v>1096</v>
       </c>
-      <c r="B114" s="31" t="s">
+      <c r="B114" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>521</v>
       </c>
       <c r="D114" s="2"/>
-      <c r="E114" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F114" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G114" s="30" t="s">
+      <c r="E114" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G114" s="29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="31" t="s">
+      <c r="A115" s="30" t="s">
         <v>1097</v>
       </c>
-      <c r="B115" s="31" t="s">
+      <c r="B115" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>522</v>
       </c>
       <c r="D115" s="2"/>
-      <c r="E115" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F115" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G115" s="30" t="s">
+      <c r="E115" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G115" s="29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="26" t="s">
+      <c r="A116" s="25" t="s">
         <v>1098</v>
       </c>
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>523</v>
       </c>
       <c r="D116" s="2"/>
-      <c r="E116" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F116" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G116" s="30" t="s">
+      <c r="E116" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G116" s="29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="31" t="s">
+      <c r="A117" s="30" t="s">
         <v>1099</v>
       </c>
-      <c r="B117" s="31" t="s">
+      <c r="B117" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>524</v>
       </c>
       <c r="D117" s="2"/>
-      <c r="E117" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F117" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G117" s="30" t="s">
+      <c r="E117" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" s="29" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="31" t="s">
+      <c r="A118" s="30" t="s">
         <v>1100</v>
       </c>
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>525</v>
       </c>
       <c r="D118" s="2"/>
-      <c r="E118" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F118" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G118" s="30" t="s">
+      <c r="E118" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="31" t="s">
+      <c r="A119" s="30" t="s">
         <v>1101</v>
       </c>
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>526</v>
       </c>
       <c r="D119" s="2"/>
-      <c r="E119" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F119" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G119" s="30" t="s">
+      <c r="E119" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G119" s="29" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="26" t="s">
+      <c r="A120" s="25" t="s">
         <v>1102</v>
       </c>
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>527</v>
       </c>
       <c r="D120" s="2"/>
-      <c r="E120" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F120" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G120" s="30" t="s">
+      <c r="E120" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" s="29" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="31" t="s">
+      <c r="A121" s="30" t="s">
         <v>1103</v>
       </c>
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>528</v>
       </c>
       <c r="D121" s="2"/>
-      <c r="E121" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F121" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G121" s="30" t="s">
+      <c r="E121" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" s="29" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="31" t="s">
+      <c r="A122" s="30" t="s">
         <v>1104</v>
       </c>
-      <c r="B122" s="31" t="s">
+      <c r="B122" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>529</v>
       </c>
       <c r="D122" s="2"/>
-      <c r="E122" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F122" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G122" s="30" t="s">
+      <c r="E122" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" s="29" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="31" t="s">
+      <c r="A123" s="30" t="s">
         <v>1105</v>
       </c>
-      <c r="B123" s="31" t="s">
+      <c r="B123" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>530</v>
       </c>
       <c r="D123" s="2"/>
-      <c r="E123" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F123" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G123" s="30" t="s">
+      <c r="E123" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" s="29" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="31" t="s">
+      <c r="A124" s="30" t="s">
         <v>1188</v>
       </c>
-      <c r="B124" s="31" t="s">
+      <c r="B124" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>531</v>
       </c>
       <c r="D124" s="2"/>
-      <c r="E124" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F124" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G124" s="30" t="s">
+      <c r="E124" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" s="29" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="31" t="s">
+      <c r="A125" s="30" t="s">
         <v>1189</v>
       </c>
-      <c r="B125" s="31" t="s">
+      <c r="B125" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>533</v>
       </c>
       <c r="D125" s="2"/>
-      <c r="E125" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F125" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G125" s="30" t="s">
+      <c r="E125" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" s="29" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="31" t="s">
+      <c r="A126" s="30" t="s">
         <v>1190</v>
       </c>
-      <c r="B126" s="31" t="s">
+      <c r="B126" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>534</v>
       </c>
       <c r="D126" s="2"/>
-      <c r="E126" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F126" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G126" s="30" t="s">
+      <c r="E126" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="31" t="s">
+      <c r="A127" s="30" t="s">
         <v>1191</v>
       </c>
-      <c r="B127" s="31" t="s">
+      <c r="B127" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>535</v>
       </c>
       <c r="D127" s="2"/>
-      <c r="E127" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F127" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G127" s="30" t="s">
+      <c r="E127" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" s="29" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="31" t="s">
+      <c r="A128" s="30" t="s">
         <v>1192</v>
       </c>
-      <c r="B128" s="31" t="s">
+      <c r="B128" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>536</v>
       </c>
       <c r="D128" s="2"/>
-      <c r="E128" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F128" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G128" s="30" t="s">
+      <c r="E128" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" s="29" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="31" t="s">
+      <c r="A129" s="30" t="s">
         <v>1193</v>
       </c>
-      <c r="B129" s="31" t="s">
+      <c r="B129" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>537</v>
       </c>
       <c r="D129" s="2"/>
-      <c r="E129" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F129" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G129" s="30" t="s">
+      <c r="E129" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" s="29" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="26" t="s">
+      <c r="A130" s="25" t="s">
         <v>1106</v>
       </c>
-      <c r="B130" s="31" t="s">
+      <c r="B130" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>538</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="E130" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F130" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G130" s="30" t="s">
+      <c r="E130" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" s="29" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="31" t="s">
+      <c r="A131" s="30" t="s">
         <v>1107</v>
       </c>
-      <c r="B131" s="31" t="s">
+      <c r="B131" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>539</v>
       </c>
       <c r="D131" s="2"/>
-      <c r="E131" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F131" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G131" s="30" t="s">
+      <c r="E131" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" s="29" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="31" t="s">
+      <c r="A132" s="30" t="s">
         <v>1108</v>
       </c>
-      <c r="B132" s="31" t="s">
+      <c r="B132" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>540</v>
       </c>
       <c r="D132" s="2"/>
-      <c r="E132" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F132" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G132" s="30" t="s">
+      <c r="E132" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" s="29" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="31" t="s">
+      <c r="A133" s="30" t="s">
         <v>1109</v>
       </c>
-      <c r="B133" s="31" t="s">
+      <c r="B133" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>541</v>
       </c>
       <c r="D133" s="2"/>
-      <c r="E133" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F133" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G133" s="30" t="s">
+      <c r="E133" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F133" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" s="29" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="26" t="s">
+      <c r="A134" s="25" t="s">
         <v>1110</v>
       </c>
-      <c r="B134" s="31" t="s">
+      <c r="B134" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>542</v>
       </c>
       <c r="D134" s="2"/>
-      <c r="E134" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F134" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G134" s="30" t="s">
+      <c r="E134" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" s="29" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="31" t="s">
+      <c r="A135" s="30" t="s">
         <v>1111</v>
       </c>
-      <c r="B135" s="31" t="s">
+      <c r="B135" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>543</v>
       </c>
       <c r="D135" s="2"/>
-      <c r="E135" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F135" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G135" s="30" t="s">
+      <c r="E135" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="31" t="s">
+      <c r="A136" s="30" t="s">
         <v>1112</v>
       </c>
-      <c r="B136" s="31" t="s">
+      <c r="B136" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>544</v>
       </c>
       <c r="D136" s="2"/>
-      <c r="E136" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F136" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G136" s="30" t="s">
+      <c r="E136" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" s="29" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="31" t="s">
+      <c r="A137" s="30" t="s">
         <v>1113</v>
       </c>
-      <c r="B137" s="31" t="s">
+      <c r="B137" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>545</v>
       </c>
       <c r="D137" s="2"/>
-      <c r="E137" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F137" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G137" s="30" t="s">
+      <c r="E137" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="26" t="s">
+      <c r="A138" s="25" t="s">
         <v>1114</v>
       </c>
-      <c r="B138" s="31" t="s">
+      <c r="B138" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>546</v>
       </c>
       <c r="D138" s="2"/>
-      <c r="E138" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F138" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G138" s="30" t="s">
+      <c r="E138" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" s="29" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="31" t="s">
+      <c r="A139" s="30" t="s">
         <v>1115</v>
       </c>
-      <c r="B139" s="31" t="s">
+      <c r="B139" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>547</v>
       </c>
       <c r="D139" s="2"/>
-      <c r="E139" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F139" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G139" s="30" t="s">
+      <c r="E139" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F139" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" s="29" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="31" t="s">
+      <c r="A140" s="30" t="s">
         <v>1194</v>
       </c>
-      <c r="B140" s="31" t="s">
+      <c r="B140" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>548</v>
       </c>
       <c r="D140" s="2"/>
-      <c r="E140" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F140" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G140" s="30" t="s">
+      <c r="E140" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" s="29" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="31" t="s">
+      <c r="A141" s="30" t="s">
         <v>1195</v>
       </c>
-      <c r="B141" s="31" t="s">
+      <c r="B141" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>549</v>
       </c>
       <c r="D141" s="2"/>
-      <c r="E141" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F141" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G141" s="30" t="s">
+      <c r="E141" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" s="29" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="31" t="s">
+      <c r="A142" s="30" t="s">
         <v>1196</v>
       </c>
-      <c r="B142" s="31" t="s">
+      <c r="B142" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>550</v>
       </c>
       <c r="D142" s="2"/>
-      <c r="E142" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F142" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G142" s="30" t="s">
+      <c r="E142" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" s="29" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="31" t="s">
+      <c r="A143" s="30" t="s">
         <v>1197</v>
       </c>
-      <c r="B143" s="31" t="s">
+      <c r="B143" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>551</v>
       </c>
       <c r="D143" s="2"/>
-      <c r="E143" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F143" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G143" s="30" t="s">
+      <c r="E143" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" s="29" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="31" t="s">
+      <c r="A144" s="30" t="s">
         <v>1198</v>
       </c>
-      <c r="B144" s="31" t="s">
+      <c r="B144" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>552</v>
       </c>
       <c r="D144" s="2"/>
-      <c r="E144" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F144" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G144" s="30" t="s">
+      <c r="E144" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F144" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" s="29" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="31" t="s">
+      <c r="A145" s="30" t="s">
         <v>1199</v>
       </c>
-      <c r="B145" s="31" t="s">
+      <c r="B145" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C145" s="9" t="s">
         <v>553</v>
       </c>
       <c r="D145" s="2"/>
-      <c r="E145" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F145" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G145" s="30" t="s">
+      <c r="E145" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" s="29" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="31" t="s">
+      <c r="A146" s="30" t="s">
         <v>1116</v>
       </c>
-      <c r="B146" s="31" t="s">
+      <c r="B146" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>554</v>
       </c>
       <c r="D146" s="2"/>
-      <c r="E146" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F146" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G146" s="30" t="s">
+      <c r="E146" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F146" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" s="29" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="31" t="s">
+      <c r="A147" s="30" t="s">
         <v>1117</v>
       </c>
-      <c r="B147" s="31" t="s">
+      <c r="B147" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>555</v>
       </c>
       <c r="D147" s="2"/>
-      <c r="E147" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F147" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G147" s="30" t="s">
+      <c r="E147" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" s="29" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="26" t="s">
+      <c r="A148" s="25" t="s">
         <v>1118</v>
       </c>
-      <c r="B148" s="31" t="s">
+      <c r="B148" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>556</v>
       </c>
       <c r="D148" s="2"/>
-      <c r="E148" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F148" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G148" s="30" t="s">
+      <c r="E148" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F148" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" s="29" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="31" t="s">
+      <c r="A149" s="30" t="s">
         <v>1119</v>
       </c>
-      <c r="B149" s="31" t="s">
+      <c r="B149" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>557</v>
       </c>
       <c r="D149" s="2"/>
-      <c r="E149" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F149" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G149" s="30" t="s">
+      <c r="E149" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" s="29" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="31" t="s">
+      <c r="A150" s="30" t="s">
         <v>1120</v>
       </c>
-      <c r="B150" s="31" t="s">
+      <c r="B150" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>558</v>
       </c>
       <c r="D150" s="2"/>
-      <c r="E150" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F150" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G150" s="30" t="s">
+      <c r="E150" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" s="29" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="31" t="s">
+      <c r="A151" s="30" t="s">
         <v>1121</v>
       </c>
-      <c r="B151" s="31" t="s">
+      <c r="B151" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>560</v>
       </c>
       <c r="D151" s="2"/>
-      <c r="E151" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F151" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G151" s="30" t="s">
+      <c r="E151" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" s="29" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="26" t="s">
+      <c r="A152" s="25" t="s">
         <v>1122</v>
       </c>
-      <c r="B152" s="31" t="s">
+      <c r="B152" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>561</v>
       </c>
       <c r="D152" s="2"/>
-      <c r="E152" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F152" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G152" s="30" t="s">
+      <c r="E152" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" s="29" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="31" t="s">
+      <c r="A153" s="30" t="s">
         <v>1123</v>
       </c>
-      <c r="B153" s="31" t="s">
+      <c r="B153" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>562</v>
       </c>
       <c r="D153" s="2"/>
-      <c r="E153" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F153" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G153" s="30" t="s">
+      <c r="E153" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F153" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" s="29" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="31" t="s">
+      <c r="A154" s="30" t="s">
         <v>1124</v>
       </c>
-      <c r="B154" s="31" t="s">
+      <c r="B154" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>563</v>
       </c>
       <c r="D154" s="2"/>
-      <c r="E154" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F154" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G154" s="30" t="s">
+      <c r="E154" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F154" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="31" t="s">
+      <c r="A155" s="30" t="s">
         <v>1125</v>
       </c>
-      <c r="B155" s="31" t="s">
+      <c r="B155" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C155" s="9" t="s">
         <v>564</v>
       </c>
       <c r="D155" s="2"/>
-      <c r="E155" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F155" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G155" s="30" t="s">
+      <c r="E155" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F155" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" s="29" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="31" t="s">
+      <c r="A156" s="30" t="s">
         <v>1200</v>
       </c>
-      <c r="B156" s="31" t="s">
+      <c r="B156" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>567</v>
       </c>
       <c r="D156" s="2"/>
-      <c r="E156" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F156" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G156" s="30" t="s">
+      <c r="E156" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F156" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" s="29" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="31" t="s">
+      <c r="A157" s="30" t="s">
         <v>1201</v>
       </c>
-      <c r="B157" s="31" t="s">
+      <c r="B157" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C157" s="9" t="s">
         <v>568</v>
       </c>
       <c r="D157" s="2"/>
-      <c r="E157" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F157" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G157" s="30" t="s">
+      <c r="E157" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F157" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" s="29" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="31" t="s">
+      <c r="A158" s="30" t="s">
         <v>1202</v>
       </c>
-      <c r="B158" s="31" t="s">
+      <c r="B158" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C158" s="9" t="s">
         <v>569</v>
       </c>
       <c r="D158" s="2"/>
-      <c r="E158" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F158" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G158" s="30" t="s">
+      <c r="E158" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F158" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" s="29" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="31" t="s">
+      <c r="A159" s="30" t="s">
         <v>1203</v>
       </c>
-      <c r="B159" s="31" t="s">
+      <c r="B159" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C159" s="9" t="s">
         <v>570</v>
       </c>
       <c r="D159" s="2"/>
-      <c r="E159" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F159" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G159" s="30" t="s">
+      <c r="E159" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" s="29" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="31" t="s">
+      <c r="A160" s="30" t="s">
         <v>1204</v>
       </c>
-      <c r="B160" s="31" t="s">
+      <c r="B160" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C160" s="9" t="s">
         <v>571</v>
       </c>
       <c r="D160" s="2"/>
-      <c r="E160" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F160" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G160" s="30" t="s">
+      <c r="E160" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F160" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" s="29" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="31" t="s">
+      <c r="A161" s="30" t="s">
         <v>1205</v>
       </c>
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C161" s="9" t="s">
         <v>573</v>
       </c>
       <c r="D161" s="2"/>
-      <c r="E161" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F161" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G161" s="30" t="s">
+      <c r="E161" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" s="29" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="26" t="s">
+      <c r="A162" s="25" t="s">
         <v>1126</v>
       </c>
-      <c r="B162" s="31" t="s">
+      <c r="B162" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C162" s="9" t="s">
         <v>574</v>
       </c>
       <c r="D162" s="2"/>
-      <c r="E162" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F162" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G162" s="30" t="s">
+      <c r="E162" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F162" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" s="29" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="31" t="s">
+      <c r="A163" s="30" t="s">
         <v>1127</v>
       </c>
-      <c r="B163" s="31" t="s">
+      <c r="B163" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>575</v>
       </c>
       <c r="D163" s="2"/>
-      <c r="E163" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F163" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G163" s="30" t="s">
+      <c r="E163" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" s="29" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="31" t="s">
+      <c r="A164" s="30" t="s">
         <v>1128</v>
       </c>
-      <c r="B164" s="31" t="s">
+      <c r="B164" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C164" s="9" t="s">
         <v>576</v>
       </c>
       <c r="D164" s="2"/>
-      <c r="E164" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F164" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G164" s="30" t="s">
+      <c r="E164" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F164" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="31" t="s">
+      <c r="A165" s="30" t="s">
         <v>1129</v>
       </c>
-      <c r="B165" s="31" t="s">
+      <c r="B165" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C165" s="9" t="s">
         <v>578</v>
       </c>
       <c r="D165" s="2"/>
-      <c r="E165" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F165" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G165" s="30" t="s">
+      <c r="E165" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F165" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" s="29" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="26" t="s">
+      <c r="A166" s="25" t="s">
         <v>1130</v>
       </c>
-      <c r="B166" s="31" t="s">
+      <c r="B166" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C166" s="9" t="s">
         <v>579</v>
       </c>
       <c r="D166" s="2"/>
-      <c r="E166" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F166" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G166" s="30" t="s">
+      <c r="E166" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F166" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G166" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="31" t="s">
+      <c r="A167" s="30" t="s">
         <v>1131</v>
       </c>
-      <c r="B167" s="31" t="s">
+      <c r="B167" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C167" s="9" t="s">
         <v>580</v>
       </c>
       <c r="D167" s="2"/>
-      <c r="E167" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F167" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G167" s="30" t="s">
+      <c r="E167" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F167" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G167" s="29" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="31" t="s">
+      <c r="A168" s="30" t="s">
         <v>1132</v>
       </c>
-      <c r="B168" s="31" t="s">
+      <c r="B168" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>581</v>
       </c>
       <c r="D168" s="2"/>
-      <c r="E168" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F168" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G168" s="30" t="s">
+      <c r="E168" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F168" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G168" s="29" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="31" t="s">
+      <c r="A169" s="30" t="s">
         <v>1133</v>
       </c>
-      <c r="B169" s="31" t="s">
+      <c r="B169" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C169" s="9" t="s">
         <v>582</v>
       </c>
       <c r="D169" s="2"/>
-      <c r="E169" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F169" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G169" s="30" t="s">
+      <c r="E169" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F169" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G169" s="29" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="26" t="s">
+      <c r="A170" s="25" t="s">
         <v>1134</v>
       </c>
-      <c r="B170" s="31" t="s">
+      <c r="B170" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>583</v>
       </c>
       <c r="D170" s="2"/>
-      <c r="E170" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F170" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G170" s="30" t="s">
+      <c r="E170" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F170" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G170" s="29" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="31" t="s">
+      <c r="A171" s="30" t="s">
         <v>1135</v>
       </c>
-      <c r="B171" s="31" t="s">
+      <c r="B171" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C171" s="9" t="s">
         <v>584</v>
       </c>
       <c r="D171" s="2"/>
-      <c r="E171" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F171" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G171" s="30" t="s">
+      <c r="E171" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F171" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" s="29" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="31" t="s">
+      <c r="A172" s="30" t="s">
         <v>1206</v>
       </c>
-      <c r="B172" s="31" t="s">
+      <c r="B172" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>585</v>
       </c>
       <c r="D172" s="2"/>
-      <c r="E172" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F172" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G172" s="30" t="s">
+      <c r="E172" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F172" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G172" s="29" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="31" t="s">
+      <c r="A173" s="30" t="s">
         <v>1208</v>
       </c>
-      <c r="B173" s="31" t="s">
+      <c r="B173" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>586</v>
       </c>
       <c r="D173" s="2"/>
-      <c r="E173" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F173" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G173" s="30" t="s">
+      <c r="E173" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F173" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G173" s="29" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="31" t="s">
+      <c r="A174" s="30" t="s">
         <v>1209</v>
       </c>
-      <c r="B174" s="31" t="s">
+      <c r="B174" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>587</v>
       </c>
       <c r="D174" s="2"/>
-      <c r="E174" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F174" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G174" s="30" t="s">
+      <c r="E174" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F174" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G174" s="29" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="31" t="s">
+      <c r="A175" s="30" t="s">
         <v>1210</v>
       </c>
-      <c r="B175" s="31" t="s">
+      <c r="B175" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>588</v>
       </c>
       <c r="D175" s="2"/>
-      <c r="E175" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F175" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G175" s="30" t="s">
+      <c r="E175" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G175" s="29" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="31" t="s">
+      <c r="A176" s="30" t="s">
         <v>1211</v>
       </c>
-      <c r="B176" s="31" t="s">
+      <c r="B176" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>589</v>
       </c>
       <c r="D176" s="2"/>
-      <c r="E176" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F176" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G176" s="30" t="s">
+      <c r="E176" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F176" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G176" s="29" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="31" t="s">
+      <c r="A177" s="30" t="s">
         <v>1212</v>
       </c>
-      <c r="B177" s="31" t="s">
+      <c r="B177" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>590</v>
       </c>
       <c r="D177" s="2"/>
-      <c r="E177" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F177" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G177" s="30" t="s">
+      <c r="E177" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G177" s="29" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="31" t="s">
+      <c r="A178" s="30" t="s">
         <v>1136</v>
       </c>
-      <c r="B178" s="31" t="s">
+      <c r="B178" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C178" s="9" t="s">
         <v>592</v>
       </c>
       <c r="D178" s="2"/>
-      <c r="E178" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F178" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G178" s="30" t="s">
+      <c r="E178" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F178" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G178" s="29" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="31" t="s">
+      <c r="A179" s="30" t="s">
         <v>1137</v>
       </c>
-      <c r="B179" s="31" t="s">
+      <c r="B179" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>593</v>
       </c>
       <c r="D179" s="2"/>
-      <c r="E179" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F179" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G179" s="30" t="s">
+      <c r="E179" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G179" s="29" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="26" t="s">
+      <c r="A180" s="25" t="s">
         <v>1138</v>
       </c>
-      <c r="B180" s="31" t="s">
+      <c r="B180" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C180" s="9" t="s">
         <v>594</v>
       </c>
       <c r="D180" s="2"/>
-      <c r="E180" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F180" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G180" s="30" t="s">
+      <c r="E180" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F180" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G180" s="29" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="31" t="s">
+      <c r="A181" s="30" t="s">
         <v>1139</v>
       </c>
-      <c r="B181" s="31" t="s">
+      <c r="B181" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>595</v>
       </c>
       <c r="D181" s="2"/>
-      <c r="E181" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F181" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G181" s="30" t="s">
+      <c r="E181" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G181" s="29" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="31" t="s">
+      <c r="A182" s="30" t="s">
         <v>1140</v>
       </c>
-      <c r="B182" s="31" t="s">
+      <c r="B182" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>596</v>
       </c>
       <c r="D182" s="2"/>
-      <c r="E182" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F182" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G182" s="30" t="s">
+      <c r="E182" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F182" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G182" s="29" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="31" t="s">
+      <c r="A183" s="30" t="s">
         <v>1141</v>
       </c>
-      <c r="B183" s="31" t="s">
+      <c r="B183" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>597</v>
       </c>
       <c r="D183" s="2"/>
-      <c r="E183" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F183" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G183" s="30" t="s">
+      <c r="E183" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F183" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G183" s="29" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="26" t="s">
+      <c r="A184" s="25" t="s">
         <v>1142</v>
       </c>
-      <c r="B184" s="31" t="s">
+      <c r="B184" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C184" s="9" t="s">
         <v>598</v>
       </c>
       <c r="D184" s="2"/>
-      <c r="E184" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F184" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G184" s="30" t="s">
+      <c r="E184" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G184" s="29" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="31" t="s">
+      <c r="A185" s="30" t="s">
         <v>1143</v>
       </c>
-      <c r="B185" s="31" t="s">
+      <c r="B185" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>599</v>
       </c>
       <c r="D185" s="2"/>
-      <c r="E185" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F185" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G185" s="30" t="s">
+      <c r="E185" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F185" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G185" s="29" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="31" t="s">
+      <c r="A186" s="30" t="s">
         <v>1144</v>
       </c>
-      <c r="B186" s="31" t="s">
+      <c r="B186" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C186" s="9" t="s">
         <v>600</v>
       </c>
       <c r="D186" s="2"/>
-      <c r="E186" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F186" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G186" s="30" t="s">
+      <c r="E186" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F186" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G186" s="29" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="31" t="s">
+      <c r="A187" s="30" t="s">
         <v>1145</v>
       </c>
-      <c r="B187" s="31" t="s">
+      <c r="B187" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>601</v>
       </c>
       <c r="D187" s="2"/>
-      <c r="E187" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F187" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G187" s="30" t="s">
+      <c r="E187" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G187" s="29" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="31" t="s">
+      <c r="A188" s="30" t="s">
         <v>1207</v>
       </c>
-      <c r="B188" s="31" t="s">
+      <c r="B188" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C188" s="9" t="s">
         <v>602</v>
       </c>
       <c r="D188" s="2"/>
-      <c r="E188" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F188" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G188" s="30" t="s">
+      <c r="E188" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G188" s="29" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="31" t="s">
+      <c r="A189" s="30" t="s">
         <v>1213</v>
       </c>
-      <c r="B189" s="31" t="s">
+      <c r="B189" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C189" s="9" t="s">
         <v>603</v>
       </c>
       <c r="D189" s="2"/>
-      <c r="E189" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F189" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G189" s="30" t="s">
+      <c r="E189" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F189" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G189" s="29" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="31" t="s">
+      <c r="A190" s="30" t="s">
         <v>1214</v>
       </c>
-      <c r="B190" s="31" t="s">
+      <c r="B190" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C190" s="9" t="s">
         <v>604</v>
       </c>
       <c r="D190" s="2"/>
-      <c r="E190" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F190" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G190" s="30" t="s">
+      <c r="E190" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F190" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G190" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="31" t="s">
+      <c r="A191" s="30" t="s">
         <v>1215</v>
       </c>
-      <c r="B191" s="31" t="s">
+      <c r="B191" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C191" s="9" t="s">
         <v>605</v>
       </c>
       <c r="D191" s="2"/>
-      <c r="E191" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F191" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G191" s="30" t="s">
+      <c r="E191" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F191" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G191" s="29" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="31" t="s">
+      <c r="A192" s="30" t="s">
         <v>1216</v>
       </c>
-      <c r="B192" s="31" t="s">
+      <c r="B192" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>606</v>
       </c>
       <c r="D192" s="2"/>
-      <c r="E192" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F192" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G192" s="30" t="s">
+      <c r="E192" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F192" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G192" s="29" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="31" t="s">
+      <c r="A193" s="30" t="s">
         <v>1217</v>
       </c>
-      <c r="B193" s="31" t="s">
+      <c r="B193" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>607</v>
       </c>
       <c r="D193" s="2"/>
-      <c r="E193" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F193" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G193" s="30" t="s">
+      <c r="E193" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F193" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G193" s="29" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="26" t="s">
+      <c r="A194" s="25" t="s">
         <v>1146</v>
       </c>
-      <c r="B194" s="31" t="s">
+      <c r="B194" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>608</v>
       </c>
       <c r="D194" s="2"/>
-      <c r="E194" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F194" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G194" s="30" t="s">
+      <c r="E194" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F194" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G194" s="29" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="31" t="s">
+      <c r="A195" s="30" t="s">
         <v>1147</v>
       </c>
-      <c r="B195" s="31" t="s">
+      <c r="B195" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C195" s="9" t="s">
         <v>609</v>
       </c>
       <c r="D195" s="2"/>
-      <c r="E195" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F195" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G195" s="30" t="s">
+      <c r="E195" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F195" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G195" s="29" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="31" t="s">
+      <c r="A196" s="30" t="s">
         <v>1148</v>
       </c>
-      <c r="B196" s="31" t="s">
+      <c r="B196" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C196" s="9" t="s">
         <v>610</v>
       </c>
       <c r="D196" s="2"/>
-      <c r="E196" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F196" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G196" s="30" t="s">
+      <c r="E196" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F196" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G196" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="31" t="s">
+      <c r="A197" s="30" t="s">
         <v>1149</v>
       </c>
-      <c r="B197" s="31" t="s">
+      <c r="B197" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>611</v>
       </c>
       <c r="D197" s="2"/>
-      <c r="E197" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F197" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G197" s="30" t="s">
+      <c r="E197" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F197" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G197" s="29" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="26" t="s">
+      <c r="A198" s="25" t="s">
         <v>1150</v>
       </c>
-      <c r="B198" s="31" t="s">
+      <c r="B198" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C198" s="9" t="s">
         <v>612</v>
       </c>
       <c r="D198" s="2"/>
-      <c r="E198" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F198" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G198" s="30" t="s">
+      <c r="E198" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F198" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G198" s="29" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="31" t="s">
+      <c r="A199" s="30" t="s">
         <v>1151</v>
       </c>
-      <c r="B199" s="31" t="s">
+      <c r="B199" s="30" t="s">
         <v>978</v>
       </c>
       <c r="C199" s="9" t="s">
         <v>613</v>
       </c>
       <c r="D199" s="2"/>
-      <c r="E199" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F199" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G199" s="30" t="s">
+      <c r="E199" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F199" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G199" s="29" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="26"/>
+      <c r="A202" s="25"/>
     </row>
     <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="26"/>
+      <c r="A206" s="25"/>
     </row>
     <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="26"/>
+      <c r="A210" s="25"/>
     </row>
     <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="26"/>
+      <c r="A214" s="25"/>
     </row>
     <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="26"/>
+      <c r="A218" s="25"/>
     </row>
     <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="26"/>
+      <c r="A222" s="25"/>
     </row>
     <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="26"/>
+      <c r="A226" s="25"/>
     </row>
     <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="26"/>
+      <c r="A230" s="25"/>
     </row>
     <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="26"/>
+      <c r="A234" s="25"/>
     </row>
     <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="26"/>
+      <c r="A238" s="25"/>
     </row>
     <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="26"/>
+      <c r="A242" s="25"/>
     </row>
     <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="26"/>
+      <c r="A246" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
